--- a/fichas.xlsx
+++ b/fichas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/paumarrod1_alum_us_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fichas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEA0C2A-0293-C54B-A24C-485FAAFCBDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C47F36-899A-4059-9460-E5ACBBF349DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{86680516-6902-4CB7-9B15-8ADAD931B4A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{86680516-6902-4CB7-9B15-8ADAD931B4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="2" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="206">
   <si>
     <t>SIGNATURA</t>
   </si>
@@ -211,64 +200,7 @@
     <t>Estornino (reverso, parece escrito por los archiveros)</t>
   </si>
   <si>
-    <t>NOMBRE VERNÁCULO</t>
-  </si>
-  <si>
-    <t>NOMBRE CIENTÍFICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUGAR DE REALIZACIÓN </t>
-  </si>
-  <si>
-    <t>TÉCNICA</t>
-  </si>
-  <si>
-    <t>TAMAÑO</t>
-  </si>
-  <si>
-    <t>PAPEL</t>
-  </si>
-  <si>
-    <t>TIPO DE DIBUJO</t>
-  </si>
-  <si>
-    <t>NÚMERO DE ESPECIES</t>
-  </si>
-  <si>
-    <t>ANATOMÍAS</t>
-  </si>
-  <si>
-    <t>NÚMEROS</t>
-  </si>
-  <si>
-    <t>CONTENIDO</t>
-  </si>
-  <si>
-    <t>PUBLICACIÓN</t>
-  </si>
-  <si>
-    <t>OTROS DIBUJOS</t>
-  </si>
-  <si>
-    <t>REFERENCIAS</t>
-  </si>
-  <si>
-    <t>DOCUMENTOS</t>
-  </si>
-  <si>
-    <t>ENLACE</t>
-  </si>
-  <si>
-    <t>IMAGEN</t>
-  </si>
-  <si>
     <t>DIBUJOS DE PLANTAS</t>
-  </si>
-  <si>
-    <t>ANOTACIONES Y CORRECCIONES</t>
-  </si>
-  <si>
-    <t>Canna paniculata</t>
   </si>
   <si>
     <t>Gálvez</t>
@@ -382,9 +314,6 @@
   </si>
   <si>
     <t>Oficina de la Flora</t>
-  </si>
-  <si>
-    <t>ORIGEN</t>
   </si>
   <si>
     <t>Ruiz/ Jaramillo Arango, 1952: 164, 320. Ruiz/ González Bueno/ Rodríguez Nozal, 2007: 164,279.</t>
@@ -902,6 +831,104 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&lt;Canna paniculata&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Flora peruviana et chilensis&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T. 1. L. I. </t>
+    </r>
+  </si>
+  <si>
+    <t>Signatura</t>
+  </si>
+  <si>
+    <t>Nombre científico</t>
+  </si>
+  <si>
+    <t>Nombre vernáculo</t>
+  </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Lugar de realización</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Técnica</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Tipo de dibujo</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Anatomías</t>
+  </si>
+  <si>
+    <t>Anotaciones y correcciones</t>
+  </si>
+  <si>
+    <t>Números</t>
+  </si>
+  <si>
+    <t>Contenido</t>
+  </si>
+  <si>
+    <t>Publicación</t>
+  </si>
+  <si>
+    <t>Otros dibujos</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Documentos</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>1785*</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1W7FTlRSsBwyf47584oNqGtEZ6PlZG-Fa</t>
   </si>
 </sst>
 </file>
@@ -1010,9 +1037,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -1057,13 +1083,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1085,7 +1110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1383,756 +1408,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463FE4FD-7B1D-470B-85B7-B420D0C0DAA6}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75390625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.43359375" style="5"/>
-    <col min="5" max="5" width="15.46875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.43359375" style="5"/>
-    <col min="8" max="8" width="33.62890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.64453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.43359375" style="5"/>
-    <col min="11" max="11" width="17.75390625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.9140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.8828125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.74609375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="42.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5"/>
+    <col min="8" max="8" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5"/>
+    <col min="11" max="11" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="42.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.41015625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79.76953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="78.0234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="62.55078125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.43359375" style="5"/>
+    <col min="18" max="18" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="71" style="5" customWidth="1"/>
+    <col min="21" max="21" width="48.28515625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="H3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1785</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L3" s="5">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E4" s="10">
         <v>1785</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="5" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L5" s="5">
         <v>2</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L6" s="5">
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E8" s="10">
         <v>1784</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="U8" s="16" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L9" s="5">
         <v>3</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E10" s="10">
         <v>1785</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L10" s="5">
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="V11" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E12" s="5">
         <v>1793</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="121.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L13" s="5">
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="V13" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2173,21 +2199,21 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
-    <col min="2" max="2" width="43.44921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8125" customWidth="1"/>
-    <col min="4" max="4" width="23.40625" customWidth="1"/>
-    <col min="7" max="7" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2222</v>
       </c>
@@ -2233,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2223</v>
       </c>
@@ -2241,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2224</v>
       </c>
@@ -2258,7 +2284,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2225</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2226</v>
       </c>
@@ -2307,7 +2333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2227</v>
       </c>
@@ -2333,7 +2359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2228</v>
       </c>
@@ -2350,7 +2376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2229</v>
       </c>
@@ -2370,7 +2396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2230</v>
       </c>
@@ -2390,7 +2416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2231</v>
       </c>
@@ -2413,7 +2439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2232</v>
       </c>
@@ -2430,7 +2456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2233</v>
       </c>
@@ -2450,7 +2476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2234</v>
       </c>
@@ -2461,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2235</v>
       </c>
@@ -2475,7 +2501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2236</v>
       </c>
@@ -2489,7 +2515,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2237</v>
       </c>
@@ -2497,7 +2523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2238</v>
       </c>
@@ -2520,7 +2546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2239</v>
       </c>
@@ -2543,7 +2569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2240</v>
       </c>
@@ -2566,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2241</v>
       </c>
@@ -2589,7 +2615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2242</v>
       </c>
@@ -2612,7 +2638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2243</v>
       </c>
@@ -2635,7 +2661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2244</v>
       </c>
@@ -2655,7 +2681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2245</v>
       </c>
@@ -2691,7 +2717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2921,18 +2947,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2944,23 +2970,31 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="d08e65ef-b195-41da-84da-1a1333d98d8f"/>
     <ds:schemaRef ds:uri="000f2a05-7112-4063-9aa5-f0003119407c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4FED374-5573-48F1-892C-80A04AAB2231}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{600AF535-C46C-45D0-BED5-B938FA1DDBA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{600AF535-C46C-45D0-BED5-B938FA1DDBA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4FED374-5573-48F1-892C-80A04AAB2231}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>